--- a/config_11.3/activity_year_config.xlsx
+++ b/config_11.3/activity_year_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="101">
   <si>
     <t>id|行号</t>
   </si>
@@ -284,95 +284,126 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>小游戏福利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GameComAct1","activity_030_xyxfl_config"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_030_xyxfl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_0818_bxfl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星换好礼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆福袋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆福利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_wxhhl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_gqfd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_031_gqfd","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gqflmfs_bg_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_031_gqfl","share_link"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_031_wxhhl","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>立冬福袋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_xyxfl_041</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_task</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_034_ldfd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_task</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_task</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏福利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>GameComAct1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>activity_030_xyxfl_config</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>小游戏福利</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"GameComAct1","activity_030_xyxfl_config"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_030_xyxfl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_0818_bxfl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>五星换好礼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>国庆福袋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>国庆福利</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_031_wxhhl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_031_gqfd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_031_gqfd","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>gqflmfs_bg_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_031_gqfl","share_link"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_031_wxhhl","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>立冬福袋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏福利</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_xyxfl_041</t>
+    <t>"act_034_ldfd","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameComAct1,"activity_030_xyxfl_config"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_034_xyxfl_config</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -380,7 +411,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +454,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -476,7 +513,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -517,6 +554,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -802,7 +842,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1299,7 +1339,7 @@
         <v>1598284799</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1478,7 +1518,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -1487,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>23</v>
@@ -1502,13 +1542,13 @@
         <v>28</v>
       </c>
       <c r="K12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>22</v>
@@ -1526,7 +1566,7 @@
         <v>1601308799</v>
       </c>
       <c r="V12" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
@@ -1537,7 +1577,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -1546,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>23</v>
@@ -1564,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>49</v>
@@ -1582,7 +1622,7 @@
         <v>1601913599</v>
       </c>
       <c r="V13" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
@@ -1593,7 +1633,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -1602,7 +1642,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>23</v>
@@ -1614,13 +1654,13 @@
         <v>27</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="N14" s="3">
         <v>1</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>49</v>
@@ -1638,7 +1678,7 @@
         <v>1601913599</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
@@ -1649,7 +1689,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
@@ -1664,16 +1704,16 @@
         <v>1</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>49</v>
@@ -1691,10 +1731,10 @@
         <v>1601913599</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:22 16384:16384" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22 16384:16384" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -1702,7 +1742,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D16" s="12">
         <v>0</v>
@@ -1710,6 +1750,9 @@
       <c r="E16" s="12">
         <v>2</v>
       </c>
+      <c r="F16" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="G16" s="14" t="s">
         <v>23</v>
       </c>
@@ -1719,11 +1762,17 @@
       <c r="I16" s="14" t="s">
         <v>27</v>
       </c>
+      <c r="J16" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="N16" s="14">
         <v>1</v>
       </c>
+      <c r="P16" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="Q16" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="R16" s="15">
         <v>44138.3125</v>
@@ -1746,7 +1795,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D17" s="14">
         <v>0</v>
@@ -1754,6 +1803,9 @@
       <c r="E17" s="14">
         <v>3</v>
       </c>
+      <c r="F17" s="14" t="s">
+        <v>96</v>
+      </c>
       <c r="G17" s="14" t="s">
         <v>23</v>
       </c>
@@ -1761,13 +1813,22 @@
         <v>1</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>27</v>
+        <v>92</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="N17" s="14">
         <v>1</v>
       </c>
+      <c r="P17" s="14" t="s">
+        <v>99</v>
+      </c>
       <c r="Q17" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="R17" s="15">
         <v>44138.3125</v>
@@ -1782,7 +1843,7 @@
         <v>1604937599</v>
       </c>
       <c r="V17" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/config_11.3/activity_year_config.xlsx
+++ b/config_11.3/activity_year_config.xlsx
@@ -360,10 +360,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>actp_own_task_p_task_xyxfl_041</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>activity_task</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -405,6 +401,10 @@
   </si>
   <si>
     <t>"GameComAct1","activity_034_xyxfl_config"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_xyxfl</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -840,10 +840,10 @@
   <dimension ref="A1:XFD17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
+      <selection pane="bottomRight" activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1543,7 +1543,7 @@
         <v>28</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N12" s="3">
         <v>1</v>
@@ -1655,7 +1655,7 @@
         <v>27</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N14" s="3">
         <v>1</v>
@@ -1752,7 +1752,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>23</v>
@@ -1764,13 +1764,13 @@
         <v>27</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N16" s="14">
         <v>1</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="14" t="s">
         <v>88</v>
@@ -1796,7 +1796,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="14">
         <v>0</v>
@@ -1805,7 +1805,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>23</v>
@@ -1814,19 +1814,19 @@
         <v>1</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N17" s="14">
         <v>1</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="14" t="s">
         <v>88</v>
@@ -1844,7 +1844,7 @@
         <v>1604937599</v>
       </c>
       <c r="V17" s="14" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/config_11.3/activity_year_config.xlsx
+++ b/config_11.3/activity_year_config.xlsx
@@ -388,22 +388,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>activity_030_xyxfl_config</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_034_ldfd","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_034_xyxfl_config</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>GameComAct1</t>
-  </si>
-  <si>
-    <t>activity_030_xyxfl_config</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_034_ldfd","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameComAct1,"activity_030_xyxfl_config"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_034_xyxfl_config</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GameComAct1","activity_034_xyxfl_config"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -839,10 +840,10 @@
   <dimension ref="A1:XFD17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1542,7 +1543,7 @@
         <v>28</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N12" s="3">
         <v>1</v>
@@ -1769,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q16" s="14" t="s">
         <v>88</v>
@@ -1804,7 +1805,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>23</v>
@@ -1819,13 +1820,13 @@
         <v>94</v>
       </c>
       <c r="K17" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="N17" s="14">
+        <v>1</v>
+      </c>
+      <c r="P17" s="14" t="s">
         <v>100</v>
-      </c>
-      <c r="N17" s="14">
-        <v>1</v>
-      </c>
-      <c r="P17" s="14" t="s">
-        <v>99</v>
       </c>
       <c r="Q17" s="14" t="s">
         <v>88</v>

--- a/config_11.3/activity_year_config.xlsx
+++ b/config_11.3/activity_year_config.xlsx
@@ -404,7 +404,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>cpl_xyxfl</t>
+    <t>actp_own_task_p_034_xyxfl</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -840,7 +840,7 @@
   <dimension ref="A1:XFD17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="V17" sqref="V17"/>
